--- a/config/3#item#道具.xlsx
+++ b/config/3#item#道具.xlsx
@@ -4,22 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1#Category#分类" sheetId="1" r:id="rId1"/>
-    <sheet name="2#Money#货币" sheetId="2" r:id="rId2"/>
-    <sheet name="3#Task#任务" sheetId="3" r:id="rId3"/>
-    <sheet name="4#Equip#装备" sheetId="4" r:id="rId4"/>
-    <sheet name="Position#装备位置" sheetId="6" r:id="rId5"/>
-    <sheet name="Type#道具类型" sheetId="5" r:id="rId6"/>
+    <sheet name="2#Pitem#道具" sheetId="2" r:id="rId2"/>
+    <sheet name="Position#装备位置" sheetId="6" r:id="rId3"/>
+    <sheet name="Type#道具类型" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>baseAtrribute</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,51 +143,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fight.RandomAttributeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础属性，格式{"randomAttribute": [{"type": "HP","min": 10,"max": 100},{"type": "ATK","min": 10,"max": 100},{"type": "DEF","min": 10,"max": 100}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加属性，格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>EQUIP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>货币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEAD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fight.RandomAttributeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fight.RandomAttributeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础属性，格式{"randomAttribute": [{"type": "HP","min": 10,"max": 100},{"type": "ATK","min": 10,"max": 100},{"type": "DEF","min": 10,"max": 100}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加属性，格式</t>
+    <t>EQUIP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,15 +211,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -233,12 +233,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -546,7 +567,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -610,6 +631,9 @@
       <c r="B6">
         <v>9999999</v>
       </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
@@ -618,6 +642,9 @@
       <c r="B7">
         <v>99</v>
       </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
@@ -625,6 +652,9 @@
       </c>
       <c r="B8">
         <v>50</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -636,284 +666,159 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="9" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -925,7 +830,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -938,18 +843,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -958,19 +863,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -986,24 +891,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
